--- a/references/situations.xlsx
+++ b/references/situations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermyers/Desktop/New_Code/perfect_flop_poker/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65654D99-6547-894F-BD4D-7A10B60F5B49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF77D6E8-8E82-5B48-932F-D18A2B2F8500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{83D104ED-6316-7042-870C-74D22446EDAB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
   <si>
     <t>lj_rfi</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Likelihood (Use this?)</t>
+  </si>
+  <si>
+    <t>Self (Copied from above swapped)</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -532,17 +538,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9281366C-56C1-1F48-B449-F24E63698A40}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -561,6 +568,9 @@
       <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G1" t="s">
         <v>16</v>
       </c>
@@ -743,6 +753,9 @@
       <c r="C14">
         <v>0</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -754,6 +767,9 @@
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -769,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -779,8 +795,11 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -790,8 +809,11 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -805,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -819,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -833,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -843,8 +865,11 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -858,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -868,8 +893,14 @@
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -883,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -897,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -907,8 +938,11 @@
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -922,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -936,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -950,152 +984,442 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
       <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
       <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
       <c r="C39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
       <c r="C40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
       <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
       <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
       <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
       <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
       <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
       <c r="C50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
       <c r="C51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
       <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
       <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
       <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
       <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
       <c r="C56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
+        <v>45</v>
+      </c>
       <c r="C57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
       <c r="C58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>45</v>
+      </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:F61">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/references/situations.xlsx
+++ b/references/situations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermyers/Desktop/New_Code/perfect_flop_poker/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF77D6E8-8E82-5B48-932F-D18A2B2F8500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F714D3-FF89-D34B-8179-7527B828CA87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{83D104ED-6316-7042-870C-74D22446EDAB}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/references/situations.xlsx
+++ b/references/situations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermyers/Desktop/New_Code/perfect_flop_poker/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F714D3-FF89-D34B-8179-7527B828CA87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E89F06-1EDE-5444-A236-852E3E1992CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{83D104ED-6316-7042-870C-74D22446EDAB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
   <si>
     <t>lj_rfi</t>
   </si>
@@ -81,9 +81,6 @@
     <t>hj_rfi</t>
   </si>
   <si>
-    <t>add end of RFI swap columns as a copy</t>
-  </si>
-  <si>
     <t>vsRFI_bb_vs_hj__raise</t>
   </si>
   <si>
@@ -177,7 +174,28 @@
     <t>Self (Copied from above swapped)</t>
   </si>
   <si>
-    <t>Done</t>
+    <t>Two-Tone Done</t>
+  </si>
+  <si>
+    <t>Rainbow Done</t>
+  </si>
+  <si>
+    <t>Likelihood (Sort descending)</t>
+  </si>
+  <si>
+    <t>% chance folded to RFI</t>
+  </si>
+  <si>
+    <t>% chance RFI raises</t>
+  </si>
+  <si>
+    <t>% chance folded to opp</t>
+  </si>
+  <si>
+    <t>% chance opp takes action</t>
+  </si>
+  <si>
+    <t>% chance RFI calls (if applicable)</t>
   </si>
 </sst>
 </file>
@@ -538,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9281366C-56C1-1F48-B449-F24E63698A40}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,9 +568,16 @@
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -560,24 +585,39 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -589,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -603,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -617,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -631,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -645,9 +685,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -659,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -673,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -687,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -701,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -715,12 +755,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -729,54 +769,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -790,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -804,7 +844,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -818,7 +858,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -829,10 +869,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -843,10 +883,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -857,10 +897,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -871,10 +911,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -885,10 +925,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -902,10 +942,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -916,10 +956,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -930,10 +970,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -944,10 +984,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -958,10 +998,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -972,10 +1012,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -986,19 +1026,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1006,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1076,7 +1116,7 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1143,10 +1183,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1157,7 +1197,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -1171,10 +1211,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1185,10 +1225,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1199,10 +1239,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1213,7 +1253,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -1227,7 +1267,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
@@ -1241,7 +1281,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -1255,10 +1295,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1269,10 +1309,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1283,10 +1323,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1297,10 +1337,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1311,10 +1351,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1325,10 +1365,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1339,10 +1379,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1353,10 +1393,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1367,10 +1407,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1381,10 +1421,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1395,10 +1435,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C61">
         <v>0</v>

--- a/references/situations.xlsx
+++ b/references/situations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermyers/Desktop/New_Code/perfect_flop_poker/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B9D2C9-729A-D34E-9CDB-547B872D794E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42447B6-E33F-484C-BFE6-87596F409F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{83D104ED-6316-7042-870C-74D22446EDAB}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{83D104ED-6316-7042-870C-74D22446EDAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
   <si>
     <t>lj_rfi</t>
   </si>
@@ -159,36 +159,9 @@
     <t>RFIvs3B_bnsb_vs_ahead_call</t>
   </si>
   <si>
-    <t>Likelihood (Use this?)</t>
-  </si>
-  <si>
     <t>Self (Copied from above swapped)</t>
   </si>
   <si>
-    <t>Two-Tone Done</t>
-  </si>
-  <si>
-    <t>Rainbow Done</t>
-  </si>
-  <si>
-    <t>Likelihood (Sort descending)</t>
-  </si>
-  <si>
-    <t>% chance folded to RFI</t>
-  </si>
-  <si>
-    <t>% chance RFI raises</t>
-  </si>
-  <si>
-    <t>% chance folded to opp</t>
-  </si>
-  <si>
-    <t>% chance opp takes action</t>
-  </si>
-  <si>
-    <t>% chance RFI calls (if applicable)</t>
-  </si>
-  <si>
     <t>my_ranges</t>
   </si>
   <si>
@@ -376,6 +349,24 @@
   </si>
   <si>
     <t>Opponent_pfrs</t>
+  </si>
+  <si>
+    <t>pot_sizes</t>
+  </si>
+  <si>
+    <t>my_investments</t>
+  </si>
+  <si>
+    <t>two-tone done</t>
+  </si>
+  <si>
+    <t>Experiment trial</t>
+  </si>
+  <si>
+    <t>rainbow done</t>
+  </si>
+  <si>
+    <t>monotone done</t>
   </si>
 </sst>
 </file>
@@ -399,12 +390,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAF47FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -419,9 +446,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9281366C-56C1-1F48-B449-F24E63698A40}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,48 +793,48 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>111</v>
+      </c>
+      <c r="K1" s="2">
+        <v>1</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -815,10 +848,13 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="K2" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -832,10 +868,13 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="K3" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -849,10 +888,13 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="K4" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -866,10 +908,13 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="K5" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -883,10 +928,13 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="K6" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -903,7 +951,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -920,7 +968,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -937,7 +985,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -954,7 +1002,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -971,7 +1019,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -988,7 +1036,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1005,7 +1053,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -1022,7 +1070,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -1039,7 +1087,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -1054,9 +1102,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1071,9 +1119,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1088,9 +1136,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1105,9 +1153,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -1122,9 +1170,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -1139,9 +1187,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
@@ -1156,9 +1204,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
@@ -1173,9 +1221,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1189,13 +1237,19 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>6.5</v>
+      </c>
+      <c r="G24">
+        <v>2.5</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1210,9 +1264,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
@@ -1227,9 +1281,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -1244,9 +1298,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
@@ -1261,9 +1315,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
@@ -1278,9 +1332,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -1295,29 +1349,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>42</v>
+        <v>106</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -1334,7 +1400,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -1351,7 +1417,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1368,7 +1434,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1385,7 +1451,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1402,7 +1468,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1419,7 +1485,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
@@ -1436,7 +1502,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -1453,7 +1519,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -1470,7 +1536,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -1487,7 +1553,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -1504,7 +1570,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -1521,7 +1587,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -1538,7 +1604,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -1555,7 +1621,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -1572,7 +1638,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -1589,7 +1655,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
@@ -1606,7 +1672,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -1623,7 +1689,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
@@ -1640,7 +1706,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
@@ -1657,7 +1723,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
         <v>25</v>
@@ -1674,7 +1740,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -1691,7 +1757,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
         <v>27</v>
@@ -1708,7 +1774,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
         <v>28</v>
@@ -1725,7 +1791,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
         <v>30</v>
@@ -1742,7 +1808,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
         <v>31</v>
@@ -1759,7 +1825,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
         <v>32</v>
@@ -1776,7 +1842,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
         <v>34</v>
@@ -1793,7 +1859,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
         <v>35</v>
@@ -1809,7 +1875,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H61">
+  <conditionalFormatting sqref="H2:H23 L24 H25:H31 H33:H61">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/references/situations.xlsx
+++ b/references/situations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermyers/Desktop/New_Code/perfect_flop_poker/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42447B6-E33F-484C-BFE6-87596F409F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030BA918-ABCB-8F46-924F-3904AD96BF5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{83D104ED-6316-7042-870C-74D22446EDAB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{83D104ED-6316-7042-870C-74D22446EDAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9281366C-56C1-1F48-B449-F24E63698A40}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -848,6 +848,12 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>18.5</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
       <c r="K2" s="3">
         <v>2</v>
       </c>
@@ -868,6 +874,12 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3">
+        <v>5.5</v>
+      </c>
+      <c r="G3">
+        <v>2.5</v>
+      </c>
       <c r="K3" s="4">
         <v>3</v>
       </c>
@@ -888,6 +900,12 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>19.5</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
       <c r="K4" s="5">
         <v>4</v>
       </c>
@@ -908,6 +926,12 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>19.5</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
       <c r="K5" s="6">
         <v>5</v>
       </c>
@@ -928,6 +952,12 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>19.5</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
       <c r="K6" s="7">
         <v>6</v>
       </c>
@@ -948,6 +978,12 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -965,6 +1001,12 @@
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="F8">
+        <v>6.5</v>
+      </c>
+      <c r="G8">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -982,6 +1024,12 @@
       <c r="E9">
         <v>0</v>
       </c>
+      <c r="F9">
+        <v>6.5</v>
+      </c>
+      <c r="G9">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -999,6 +1047,12 @@
       <c r="E10">
         <v>0</v>
       </c>
+      <c r="F10">
+        <v>6.5</v>
+      </c>
+      <c r="G10">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1016,6 +1070,12 @@
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1033,6 +1093,12 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12">
+        <v>18.5</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1050,6 +1116,12 @@
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="F13">
+        <v>5.5</v>
+      </c>
+      <c r="G13">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1067,6 +1139,12 @@
       <c r="E14">
         <v>1</v>
       </c>
+      <c r="F14">
+        <v>19.5</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1084,6 +1162,12 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15">
+        <v>19.5</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1101,6 +1185,12 @@
       <c r="E16">
         <v>1</v>
       </c>
+      <c r="F16">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1118,6 +1208,12 @@
       <c r="E17">
         <v>0</v>
       </c>
+      <c r="F17">
+        <v>6.5</v>
+      </c>
+      <c r="G17">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1135,6 +1231,12 @@
       <c r="E18">
         <v>0</v>
       </c>
+      <c r="F18">
+        <v>6.5</v>
+      </c>
+      <c r="G18">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1152,6 +1254,12 @@
       <c r="E19">
         <v>0</v>
       </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1169,6 +1277,12 @@
       <c r="E20">
         <v>1</v>
       </c>
+      <c r="F20">
+        <v>18.5</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1186,6 +1300,12 @@
       <c r="E21">
         <v>0</v>
       </c>
+      <c r="F21">
+        <v>5.5</v>
+      </c>
+      <c r="G21">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1203,6 +1323,12 @@
       <c r="E22">
         <v>1</v>
       </c>
+      <c r="F22">
+        <v>19.5</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1220,6 +1346,12 @@
       <c r="E23">
         <v>1</v>
       </c>
+      <c r="F23">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1263,6 +1395,12 @@
       <c r="E25">
         <v>0</v>
       </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1280,6 +1418,12 @@
       <c r="E26">
         <v>1</v>
       </c>
+      <c r="F26">
+        <v>18.5</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1297,6 +1441,12 @@
       <c r="E27">
         <v>0</v>
       </c>
+      <c r="F27">
+        <v>5.5</v>
+      </c>
+      <c r="G27">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1314,6 +1464,12 @@
       <c r="E28">
         <v>1</v>
       </c>
+      <c r="F28">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1331,6 +1487,12 @@
       <c r="E29">
         <v>1</v>
       </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1348,6 +1510,12 @@
       <c r="E30">
         <v>0</v>
       </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -1381,7 +1549,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -1397,8 +1565,14 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>18.5</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1414,8 +1588,14 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>5.5</v>
+      </c>
+      <c r="G34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -1431,8 +1611,14 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>19.5</v>
+      </c>
+      <c r="G35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -1448,8 +1634,14 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>19.5</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -1465,8 +1657,14 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>19.5</v>
+      </c>
+      <c r="G37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1482,8 +1680,14 @@
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -1499,8 +1703,14 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>6.5</v>
+      </c>
+      <c r="G39">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -1516,8 +1726,14 @@
       <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>6.5</v>
+      </c>
+      <c r="G40">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -1533,8 +1749,14 @@
       <c r="E41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>6.5</v>
+      </c>
+      <c r="G41">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -1550,8 +1772,14 @@
       <c r="E42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1567,8 +1795,14 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>18.5</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -1584,8 +1818,14 @@
       <c r="E44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>5.5</v>
+      </c>
+      <c r="G44">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -1601,8 +1841,14 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>19.5</v>
+      </c>
+      <c r="G45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -1618,8 +1864,14 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>19.5</v>
+      </c>
+      <c r="G46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -1635,8 +1887,14 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>19</v>
+      </c>
+      <c r="G47">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -1652,8 +1910,14 @@
       <c r="E48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>6.5</v>
+      </c>
+      <c r="G48">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -1669,8 +1933,14 @@
       <c r="E49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>6.5</v>
+      </c>
+      <c r="G49">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -1686,8 +1956,14 @@
       <c r="E50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -1703,8 +1979,14 @@
       <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>18.5</v>
+      </c>
+      <c r="G51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -1720,8 +2002,14 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>5.5</v>
+      </c>
+      <c r="G52">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -1737,8 +2025,14 @@
       <c r="E53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>19.5</v>
+      </c>
+      <c r="G53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -1754,8 +2048,14 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>19</v>
+      </c>
+      <c r="G54">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -1771,8 +2071,14 @@
       <c r="E55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>6.5</v>
+      </c>
+      <c r="G55">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -1788,8 +2094,14 @@
       <c r="E56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -1805,8 +2117,14 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>18.5</v>
+      </c>
+      <c r="G57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -1822,8 +2140,14 @@
       <c r="E58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>5.5</v>
+      </c>
+      <c r="G58">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -1839,8 +2163,14 @@
       <c r="E59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>19</v>
+      </c>
+      <c r="G59">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -1856,8 +2186,14 @@
       <c r="E60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>18</v>
+      </c>
+      <c r="G60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -1873,10 +2209,16 @@
       <c r="E61">
         <v>1</v>
       </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H23 L24 H25:H31 H33:H61">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="H2:H23 L24 H25:H31 H33:H61 I3">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/references/situations.xlsx
+++ b/references/situations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermyers/Desktop/New_Code/perfect_flop_poker/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030BA918-ABCB-8F46-924F-3904AD96BF5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A002A026-64CA-3843-B273-33D3B8380ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{83D104ED-6316-7042-870C-74D22446EDAB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
   <si>
     <t>lj_rfi</t>
   </si>
@@ -72,9 +72,6 @@
     <t>vsRFI_sb_vs_lj__call</t>
   </si>
   <si>
-    <t>Opp</t>
-  </si>
-  <si>
     <t>hj_rfi</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
   </si>
   <si>
     <t>RFIvs3B_bnsb_vs_ahead_call</t>
-  </si>
-  <si>
-    <t>Self (Copied from above swapped)</t>
   </si>
   <si>
     <t>my_ranges</t>
@@ -769,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9281366C-56C1-1F48-B449-F24E63698A40}">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,40 +787,40 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="2">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="2">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -834,10 +828,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -860,7 +854,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -886,7 +880,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -912,7 +906,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -938,7 +932,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -964,10 +958,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -987,7 +981,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1010,7 +1004,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -1033,7 +1027,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1056,7 +1050,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -1079,13 +1073,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1102,13 +1096,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1125,13 +1119,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1148,13 +1142,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1171,13 +1165,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1194,13 +1188,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1217,13 +1211,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1240,13 +1234,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1263,13 +1257,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1286,13 +1280,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
         <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1309,13 +1303,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1332,13 +1326,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1355,13 +1349,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1381,13 +1375,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1404,13 +1398,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1427,13 +1421,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1450,13 +1444,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1473,13 +1467,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1496,13 +1490,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1517,36 +1511,50 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>18.5</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+    </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>111</v>
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>5.5</v>
+      </c>
+      <c r="G32">
+        <v>1.5</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1554,22 +1562,22 @@
         <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1577,22 +1585,22 @@
         <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>5.5</v>
+        <v>19.5</v>
       </c>
       <c r="G34">
-        <v>1.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1600,10 +1608,10 @@
         <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1623,22 +1631,22 @@
         <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="G36">
-        <v>9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1646,22 +1654,22 @@
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>19.5</v>
+        <v>6.5</v>
       </c>
       <c r="G37">
-        <v>9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1669,22 +1677,22 @@
         <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="G38">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1692,7 +1700,7 @@
         <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1715,22 +1723,22 @@
         <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="G40">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1738,22 +1746,22 @@
         <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>6.5</v>
+        <v>18.5</v>
       </c>
       <c r="G41">
-        <v>2.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1761,10 +1769,10 @@
         <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1773,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1784,22 +1792,22 @@
         <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="G43">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1807,22 +1815,22 @@
         <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>5.5</v>
+        <v>19.5</v>
       </c>
       <c r="G44">
-        <v>1.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1830,22 +1838,22 @@
         <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="G45">
-        <v>9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1853,22 +1861,22 @@
         <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>19.5</v>
+        <v>6.5</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1876,22 +1884,22 @@
         <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="G47">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1899,22 +1907,22 @@
         <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="G48">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1922,22 +1930,22 @@
         <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>6.5</v>
+        <v>18.5</v>
       </c>
       <c r="G49">
-        <v>2.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1945,11 +1953,11 @@
         <v>93</v>
       </c>
       <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
         <v>22</v>
       </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
       <c r="D50">
         <v>0</v>
       </c>
@@ -1957,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1968,22 +1976,22 @@
         <v>94</v>
       </c>
       <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
         <v>38</v>
       </c>
-      <c r="C51" t="s">
-        <v>40</v>
-      </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="G51">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1991,22 +1999,22 @@
         <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="G52">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2014,22 +2022,22 @@
         <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>19.5</v>
+        <v>6.5</v>
       </c>
       <c r="G53">
-        <v>9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2037,22 +2045,22 @@
         <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G54">
-        <v>8.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2060,22 +2068,22 @@
         <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>6.5</v>
+        <v>18.5</v>
       </c>
       <c r="G55">
-        <v>2.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2083,11 +2091,11 @@
         <v>99</v>
       </c>
       <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" t="s">
         <v>28</v>
       </c>
-      <c r="C56" t="s">
-        <v>23</v>
-      </c>
       <c r="D56">
         <v>0</v>
       </c>
@@ -2095,10 +2103,10 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2106,10 +2114,10 @@
         <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2118,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="G57">
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2129,22 +2137,22 @@
         <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>5.5</v>
+        <v>18</v>
       </c>
       <c r="G58">
-        <v>1.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2152,72 +2160,26 @@
         <v>102</v>
       </c>
       <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
         <v>32</v>
       </c>
-      <c r="C59" t="s">
-        <v>41</v>
-      </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G59">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>18</v>
-      </c>
-      <c r="G60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>6</v>
-      </c>
-      <c r="G61">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H23 L24 H25:H31 H33:H61 I3">
+  <conditionalFormatting sqref="H2:H23 L24 H25:H59 I3">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
